--- a/FurnitureShopReport.xlsx
+++ b/FurnitureShopReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11388" windowHeight="8448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -53,15 +53,27 @@
     <t>date</t>
   </si>
   <si>
+    <t>Офисное Кресло</t>
+  </si>
+  <si>
+    <t>Настольная лампа</t>
+  </si>
+  <si>
+    <t>Кухонный уголок</t>
+  </si>
+  <si>
     <t>Комод</t>
   </si>
   <si>
-    <t>Кухонный уголок</t>
-  </si>
-  <si>
     <t>Сервировочный стол</t>
   </si>
   <si>
+    <t>Шерстяное одеяло</t>
+  </si>
+  <si>
+    <t>Обеденный стол</t>
+  </si>
+  <si>
     <t>Канделябр</t>
   </si>
   <si>
@@ -71,25 +83,25 @@
     <t>Офисный диван</t>
   </si>
   <si>
-    <t>Офисное Кресло</t>
-  </si>
-  <si>
-    <t>Обеденный стол</t>
-  </si>
-  <si>
-    <t>Настольная лампа</t>
+    <t>2318,84</t>
+  </si>
+  <si>
+    <t>2733,06</t>
+  </si>
+  <si>
+    <t>621,50</t>
   </si>
   <si>
     <t>1160,00</t>
   </si>
   <si>
-    <t>621,50</t>
-  </si>
-  <si>
     <t>2850,00</t>
   </si>
   <si>
-    <t>2318,84</t>
+    <t>1229,86</t>
+  </si>
+  <si>
+    <t>2373,00</t>
   </si>
   <si>
     <t>4720,71</t>
@@ -98,31 +110,31 @@
     <t>4366,00</t>
   </si>
   <si>
-    <t>2373,00</t>
-  </si>
-  <si>
-    <t>2733,06</t>
-  </si>
-  <si>
     <t>ОАО «Речицадрев»</t>
   </si>
   <si>
+    <t>ЗАО «Мозырьлес»</t>
+  </si>
+  <si>
     <t>ООО «ДЕЛКОМ40»</t>
   </si>
   <si>
-    <t>ЗАО «Мозырьлес»</t>
-  </si>
-  <si>
-    <t>Гостинная</t>
+    <t>Офисная</t>
+  </si>
+  <si>
+    <t>Спальная</t>
   </si>
   <si>
     <t>Кухонная</t>
   </si>
   <si>
-    <t>Офисная</t>
-  </si>
-  <si>
-    <t>Спальная</t>
+    <t>4637,6800</t>
+  </si>
+  <si>
+    <t>84724,8600</t>
+  </si>
+  <si>
+    <t>2486,0000</t>
   </si>
   <si>
     <t>23200,0000</t>
@@ -131,9 +143,24 @@
     <t>1864,5000</t>
   </si>
   <si>
+    <t>17100,0000</t>
+  </si>
+  <si>
+    <t>1229,8647</t>
+  </si>
+  <si>
+    <t>8199,1800</t>
+  </si>
+  <si>
+    <t>4746,0000</t>
+  </si>
+  <si>
     <t>22800,0000</t>
   </si>
   <si>
+    <t>6956,5200</t>
+  </si>
+  <si>
     <t>13913,0400</t>
   </si>
   <si>
@@ -146,25 +173,43 @@
     <t>2318,8400</t>
   </si>
   <si>
-    <t>4746,0000</t>
-  </si>
-  <si>
-    <t>60127,3200</t>
-  </si>
-  <si>
     <t>8732,0000</t>
   </si>
   <si>
+    <t>2320,0000</t>
+  </si>
+  <si>
+    <t>70810,6200</t>
+  </si>
+  <si>
+    <t>59850,0000</t>
+  </si>
+  <si>
+    <t>74222,0000</t>
+  </si>
+  <si>
+    <t>32463,7600</t>
+  </si>
+  <si>
+    <t>18984,0000</t>
+  </si>
+  <si>
+    <t>15.04.2024</t>
+  </si>
+  <si>
+    <t>17.04.2024</t>
+  </si>
+  <si>
     <t>10.04.2024</t>
   </si>
   <si>
     <t>12.04.2024</t>
   </si>
   <si>
+    <t>16.04.2024</t>
+  </si>
+  <si>
     <t>14.04.2024</t>
-  </si>
-  <si>
-    <t>15.04.2024</t>
   </si>
 </sst>
 </file>
@@ -254,11 +299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H11" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H11"/>
-  <sortState ref="A2:H11">
-    <sortCondition ref="F1:F11"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H24" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:H24"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="id" name="id">
       <xmlColumnPr mapId="1" xpath="/sales/sale/@id" xmlDataType="integer"/>
@@ -552,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +606,7 @@
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
@@ -598,13 +640,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -613,76 +655,76 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -691,13 +733,13 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,155 +747,493 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/FurnitureShopReport.xlsx
+++ b/FurnitureShopReport.xlsx
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11388" windowHeight="8448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="24" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="61">
   <si>
     <t>furniture</t>
   </si>
@@ -50,45 +56,51 @@
     <t>date</t>
   </si>
   <si>
+    <t>Офисный стол</t>
+  </si>
+  <si>
     <t>Офисный шкаф</t>
   </si>
   <si>
-    <t>Офисный стол</t>
+    <t>Дубовый шкаф</t>
+  </si>
+  <si>
+    <t>Обеденный стол</t>
   </si>
   <si>
     <t>Офисный стул</t>
   </si>
   <si>
-    <t>Дубовый шкаф</t>
-  </si>
-  <si>
-    <t>Обеденный стол</t>
+    <t>Диван гостинный</t>
   </si>
   <si>
     <t>Стул Форест</t>
   </si>
   <si>
+    <t>3700,00</t>
+  </si>
+  <si>
     <t>6000,60</t>
   </si>
   <si>
-    <t>3700,00</t>
+    <t>5999,60</t>
+  </si>
+  <si>
+    <t>4599,00</t>
   </si>
   <si>
     <t>1999,00</t>
   </si>
   <si>
-    <t>5999,60</t>
-  </si>
-  <si>
-    <t>4599,00</t>
+    <t>6749,00</t>
+  </si>
+  <si>
+    <t>ОАО «Речицадрев»</t>
   </si>
   <si>
     <t>ЗАО «Мозырьлес»</t>
   </si>
   <si>
-    <t>ОАО «Речицадрев»</t>
-  </si>
-  <si>
     <t>ООО «ДЕЛКОМ40»</t>
   </si>
   <si>
@@ -101,19 +113,37 @@
     <t>Кухонная</t>
   </si>
   <si>
+    <t>Гостинная</t>
+  </si>
+  <si>
+    <t>33300,00</t>
+  </si>
+  <si>
     <t>18001,80</t>
   </si>
   <si>
     <t>7400,00</t>
   </si>
   <si>
+    <t>11999,20</t>
+  </si>
+  <si>
+    <t>9198,00</t>
+  </si>
+  <si>
     <t>15992,00</t>
   </si>
   <si>
     <t>17998,80</t>
   </si>
   <si>
-    <t>11999,20</t>
+    <t>60006,00</t>
+  </si>
+  <si>
+    <t>17991,00</t>
+  </si>
+  <si>
+    <t>26996,00</t>
   </si>
   <si>
     <t>24002,40</t>
@@ -122,19 +152,28 @@
     <t>14800,00</t>
   </si>
   <si>
+    <t>3998,00</t>
+  </si>
+  <si>
+    <t>13498,00</t>
+  </si>
+  <si>
     <t>70300,00</t>
   </si>
   <si>
-    <t>3998,00</t>
-  </si>
-  <si>
-    <t>30003,00</t>
-  </si>
-  <si>
-    <t>9995,00</t>
-  </si>
-  <si>
-    <t>22200,00</t>
+    <t>5997,00</t>
+  </si>
+  <si>
+    <t>13797,00</t>
+  </si>
+  <si>
+    <t>12001,20</t>
+  </si>
+  <si>
+    <t>33745,00</t>
+  </si>
+  <si>
+    <t>23.04.2024</t>
   </si>
   <si>
     <t>20.04.2024</t>
@@ -146,7 +185,37 @@
     <t>22.04.2024</t>
   </si>
   <si>
-    <t>23.04.2024</t>
+    <t>24.04.2024</t>
+  </si>
+  <si>
+    <t>25.04.2024</t>
+  </si>
+  <si>
+    <t>Сумма по полю quantity</t>
+  </si>
+  <si>
+    <t>Количество по полю totalCost</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>С нарастающим итогом</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
   </si>
 </sst>
 </file>
@@ -183,9 +252,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -234,11 +308,1838 @@
 </MapInfo>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[FurnitureShopReport.xlsx]Лист2!Сводная таблица8</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сумма по полю </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>quantity </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>по строке </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>furniture</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Итог</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Диван гостинный</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Дубовый шкаф</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Обеденный стол</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Офисный стол</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Офисный стул</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Офисный шкаф</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Стул Форест</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-981B-481A-9A9B-D8B3ECD206CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1000739600"/>
+        <c:axId val="1000740016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1000739600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000740016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1000740016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000739600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="komp" refreshedDate="45417.855111805555" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Таблица1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="furniture" numFmtId="49">
+      <sharedItems count="7">
+        <s v="Диван гостинный"/>
+        <s v="Обеденный стол"/>
+        <s v="Стул Форест"/>
+        <s v="Офисный стол"/>
+        <s v="Офисный шкаф"/>
+        <s v="Офисный стул"/>
+        <s v="Дубовый шкаф"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="retailPrice" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="manufacturer" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="type" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="19"/>
+    </cacheField>
+    <cacheField name="totalCost" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="date" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="komp" refreshedDate="45417.855967592594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Таблица1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="furniture" numFmtId="49">
+      <sharedItems count="7">
+        <s v="Диван гостинный"/>
+        <s v="Обеденный стол"/>
+        <s v="Стул Форест"/>
+        <s v="Офисный стол"/>
+        <s v="Офисный шкаф"/>
+        <s v="Офисный стул"/>
+        <s v="Дубовый шкаф"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="retailPrice" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="manufacturer" numFmtId="49">
+      <sharedItems count="3">
+        <s v="ОАО «Речицадрев»"/>
+        <s v="ООО «ДЕЛКОМ40»"/>
+        <s v="ЗАО «Мозырьлес»"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="type" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="19"/>
+    </cacheField>
+    <cacheField name="totalCost" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="date" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+  <r>
+    <x v="0"/>
+    <s v="6749,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Гостинная"/>
+    <n v="4"/>
+    <s v="26996,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6749,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Гостинная"/>
+    <n v="2"/>
+    <s v="13498,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6749,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Гостинная"/>
+    <n v="5"/>
+    <s v="33745,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="4599,00"/>
+    <s v="ООО «ДЕЛКОМ40»"/>
+    <s v="Кухонная"/>
+    <n v="2"/>
+    <s v="9198,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="1999,00"/>
+    <s v="ООО «ДЕЛКОМ40»"/>
+    <s v="Кухонная"/>
+    <n v="1"/>
+    <s v="1999,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="4599,00"/>
+    <s v="ООО «ДЕЛКОМ40»"/>
+    <s v="Кухонная"/>
+    <n v="1"/>
+    <s v="4599,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="1999,00"/>
+    <s v="ООО «ДЕЛКОМ40»"/>
+    <s v="Кухонная"/>
+    <n v="2"/>
+    <s v="3998,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="1999,00"/>
+    <s v="ООО «ДЕЛКОМ40»"/>
+    <s v="Кухонная"/>
+    <n v="3"/>
+    <s v="5997,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="4599,00"/>
+    <s v="ООО «ДЕЛКОМ40»"/>
+    <s v="Кухонная"/>
+    <n v="3"/>
+    <s v="13797,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="9"/>
+    <s v="33300,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Офисная"/>
+    <n v="3"/>
+    <s v="18001,80"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="7400,00"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="8"/>
+    <s v="15992,00"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Офисная"/>
+    <n v="10"/>
+    <s v="60006,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="9"/>
+    <s v="17991,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Офисная"/>
+    <n v="4"/>
+    <s v="24002,40"/>
+    <s v="21.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="4"/>
+    <s v="14800,00"/>
+    <s v="21.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Офисная"/>
+    <n v="4"/>
+    <s v="24002,40"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Офисная"/>
+    <n v="3"/>
+    <s v="18001,80"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="7400,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="3998,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="1"/>
+    <s v="1999,00"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="19"/>
+    <s v="70300,00"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="12001,20"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="7400,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <s v="ОАО «Речицадрев»"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="3998,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Спальная"/>
+    <n v="2"/>
+    <s v="11999,20"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Спальная"/>
+    <n v="3"/>
+    <s v="17998,80"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Спальная"/>
+    <n v="2"/>
+    <s v="11999,20"/>
+    <s v="21.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Спальная"/>
+    <n v="1"/>
+    <s v="5999,60"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <s v="ЗАО «Мозырьлес»"/>
+    <s v="Спальная"/>
+    <n v="1"/>
+    <s v="5999,60"/>
+    <s v="25.04.2024"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+  <r>
+    <x v="0"/>
+    <s v="6749,00"/>
+    <x v="0"/>
+    <s v="Гостинная"/>
+    <n v="4"/>
+    <s v="26996,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6749,00"/>
+    <x v="0"/>
+    <s v="Гостинная"/>
+    <n v="2"/>
+    <s v="13498,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="6749,00"/>
+    <x v="0"/>
+    <s v="Гостинная"/>
+    <n v="5"/>
+    <s v="33745,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="4599,00"/>
+    <x v="1"/>
+    <s v="Кухонная"/>
+    <n v="2"/>
+    <s v="9198,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="1999,00"/>
+    <x v="1"/>
+    <s v="Кухонная"/>
+    <n v="1"/>
+    <s v="1999,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="4599,00"/>
+    <x v="1"/>
+    <s v="Кухонная"/>
+    <n v="1"/>
+    <s v="4599,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="1999,00"/>
+    <x v="1"/>
+    <s v="Кухонная"/>
+    <n v="2"/>
+    <s v="3998,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="1999,00"/>
+    <x v="1"/>
+    <s v="Кухонная"/>
+    <n v="3"/>
+    <s v="5997,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="4599,00"/>
+    <x v="1"/>
+    <s v="Кухонная"/>
+    <n v="3"/>
+    <s v="13797,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="9"/>
+    <s v="33300,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <x v="2"/>
+    <s v="Офисная"/>
+    <n v="3"/>
+    <s v="18001,80"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="7400,00"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="8"/>
+    <s v="15992,00"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <x v="2"/>
+    <s v="Офисная"/>
+    <n v="10"/>
+    <s v="60006,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="9"/>
+    <s v="17991,00"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <x v="2"/>
+    <s v="Офисная"/>
+    <n v="4"/>
+    <s v="24002,40"/>
+    <s v="21.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="4"/>
+    <s v="14800,00"/>
+    <s v="21.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <x v="2"/>
+    <s v="Офисная"/>
+    <n v="4"/>
+    <s v="24002,40"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <x v="2"/>
+    <s v="Офисная"/>
+    <n v="3"/>
+    <s v="18001,80"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="7400,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="3998,00"/>
+    <s v="24.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="1"/>
+    <s v="1999,00"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="19"/>
+    <s v="70300,00"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="6000,60"/>
+    <x v="2"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="12001,20"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="3700,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="7400,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="1999,00"/>
+    <x v="0"/>
+    <s v="Офисная"/>
+    <n v="2"/>
+    <s v="3998,00"/>
+    <s v="25.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <x v="2"/>
+    <s v="Спальная"/>
+    <n v="2"/>
+    <s v="11999,20"/>
+    <s v="23.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <x v="2"/>
+    <s v="Спальная"/>
+    <n v="3"/>
+    <s v="17998,80"/>
+    <s v="20.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <x v="2"/>
+    <s v="Спальная"/>
+    <n v="2"/>
+    <s v="11999,20"/>
+    <s v="21.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <x v="2"/>
+    <s v="Спальная"/>
+    <n v="1"/>
+    <s v="5999,60"/>
+    <s v="22.04.2024"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="5999,60"/>
+    <x v="2"/>
+    <s v="Спальная"/>
+    <n v="1"/>
+    <s v="5999,60"/>
+    <s v="25.04.2024"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю quantity" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица17" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I18:J22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item sd="0" x="2"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю totalCost" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G17" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:G17"/>
-  <sortState ref="A2:G17">
-    <sortCondition ref="C1:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G32" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:G32"/>
+  <sortState ref="A2:G32">
+    <sortCondition ref="D1:D32"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="furniture" name="furniture">
@@ -530,21 +2431,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -572,117 +2576,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,183 +2694,183 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -874,22 +2878,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -897,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -906,42 +2910,418 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>